--- a/data/trans_camb/P1424_2016_2023-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P1424_2016_2023-Clase-trans_camb.xlsx
@@ -567,7 +567,7 @@
         <v>1.399328368804666</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>4.739012462892122</v>
+        <v>4.739012462892121</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>2.970550618139014</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.721469983653052</v>
+        <v>-0.525962811894134</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>2.587890220145404</v>
+        <v>2.502070458283232</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1.464189966726811</v>
+        <v>1.300568987922287</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.230670981871569</v>
+        <v>3.564173390585561</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>7.252316580729336</v>
+        <v>7.002171835992048</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4.565851088930159</v>
+        <v>4.513640293028541</v>
       </c>
     </row>
     <row r="7">
@@ -618,7 +618,7 @@
         <v>0.7913289880256348</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>2.919891496153828</v>
+        <v>2.919891496153827</v>
       </c>
       <c r="E7" s="6" t="n">
         <v>1.743947937623728</v>
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.354056481108537</v>
+        <v>-0.3136175200699541</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.750978690524879</v>
+        <v>0.6850475286455588</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.4937429178680998</v>
+        <v>0.488692982733644</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>3.663216686220818</v>
+        <v>4.108649159563697</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>9.090842654969064</v>
+        <v>8.210310220296078</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>4.344852050090358</v>
+        <v>4.33052641736034</v>
       </c>
     </row>
     <row r="10">
@@ -670,13 +670,13 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>2.860205284601589</v>
+        <v>2.86020528460159</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>4.824001376423777</v>
+        <v>4.824001376423779</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3.726563444286306</v>
+        <v>3.726563444286308</v>
       </c>
     </row>
     <row r="11">
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.4200466075694668</v>
+        <v>0.4839939396586956</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.380367494679848</v>
+        <v>1.584091971850471</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.770244824612347</v>
+        <v>1.876481664465016</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>5.112262987707342</v>
+        <v>5.216946516375353</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>8.019906516834583</v>
+        <v>8.036789760747205</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5.682710282497109</v>
+        <v>5.95648468446978</v>
       </c>
     </row>
     <row r="13">
@@ -724,7 +724,7 @@
         <v>1.623636301129114</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>1.416000316774331</v>
+        <v>1.416000316774332</v>
       </c>
       <c r="E13" s="6" t="n">
         <v>1.445101512048845</v>
@@ -738,13 +738,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.03744936431665918</v>
+        <v>-0.03589857371799528</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.2072900996435289</v>
+        <v>0.1960294237021186</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.4245909991202428</v>
+        <v>0.4778149212351052</v>
       </c>
     </row>
     <row r="15">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>5.982105630855835</v>
+        <v>5.784622750374968</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>3.965255476274474</v>
+        <v>4.069884448044061</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>3.035790751055957</v>
+        <v>3.476452121927073</v>
       </c>
     </row>
     <row r="16">
@@ -782,7 +782,7 @@
         <v>4.290225485807444</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3.336404192011059</v>
+        <v>3.336404192011058</v>
       </c>
     </row>
     <row r="17">
@@ -793,13 +793,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.4391334078632685</v>
+        <v>0.6769476480353978</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.454215930872916</v>
+        <v>-1.968214559500588</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1.115739001859852</v>
+        <v>1.133520772481804</v>
       </c>
     </row>
     <row r="18">
@@ -810,13 +810,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>5.335370404201564</v>
+        <v>5.5089918387946</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>9.432858466066207</v>
+        <v>8.859536584496416</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>5.610267497881512</v>
+        <v>5.591655052901653</v>
       </c>
     </row>
     <row r="19">
@@ -844,13 +844,13 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.04068657075169067</v>
+        <v>0.04216424282240379</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.2151941106238901</v>
+        <v>-0.2298950925997889</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.21873652151156</v>
+        <v>0.2055860185530575</v>
       </c>
     </row>
     <row r="21">
@@ -861,13 +861,13 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>3.053084836217109</v>
+        <v>3.330998166418311</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>2.977058038638859</v>
+        <v>2.602740910252236</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>2.377348551913627</v>
+        <v>2.320793136031199</v>
       </c>
     </row>
     <row r="22">
@@ -888,7 +888,7 @@
         <v>3.143281851462639</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2.782942706737895</v>
+        <v>2.782942706737897</v>
       </c>
     </row>
     <row r="23">
@@ -899,13 +899,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>1.022980271645825</v>
+        <v>0.9537581346639166</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.4690111547239108</v>
+        <v>0.7657792085301616</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1.507258684178527</v>
+        <v>1.502641759508363</v>
       </c>
     </row>
     <row r="24">
@@ -916,13 +916,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>4.056708315330949</v>
+        <v>3.919937374514032</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>5.47465716453033</v>
+        <v>5.528521777097298</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>4.150187995917505</v>
+        <v>4.121523928926445</v>
       </c>
     </row>
     <row r="25">
@@ -939,7 +939,7 @@
         <v>0.5153793797472566</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.7607424317315866</v>
+        <v>0.7607424317315871</v>
       </c>
     </row>
     <row r="26">
@@ -950,13 +950,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.3820872470390171</v>
+        <v>0.3679074276633842</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.05257024590817543</v>
+        <v>0.09678816578755588</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.3555608235217167</v>
+        <v>0.3111453611357728</v>
       </c>
     </row>
     <row r="27">
@@ -967,13 +967,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>3.169930076189245</v>
+        <v>2.936515615787499</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.12306564876839</v>
+        <v>1.090100693733381</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.433224952994209</v>
+        <v>1.304875898731647</v>
       </c>
     </row>
     <row r="28">
@@ -988,7 +988,7 @@
         </is>
       </c>
       <c r="C28" s="5" t="n">
-        <v>1.86541427563444</v>
+        <v>1.865414275634439</v>
       </c>
       <c r="D28" s="5" t="n">
         <v>0.4585291278183842</v>
@@ -1005,13 +1005,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.02841889007477207</v>
+        <v>-0.05221585412584081</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-2.441775607364826</v>
+        <v>-2.527826944585633</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-0.2933626254414406</v>
+        <v>-0.2697798439686382</v>
       </c>
     </row>
     <row r="30">
@@ -1022,13 +1022,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>3.885489872399875</v>
+        <v>3.967207246036881</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>3.360431350959476</v>
+        <v>3.341995027510123</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>3.172459651190156</v>
+        <v>3.31217943644567</v>
       </c>
     </row>
     <row r="31">
@@ -1039,7 +1039,7 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>0.88746490240942</v>
+        <v>0.8874649024094197</v>
       </c>
       <c r="D31" s="6" t="n">
         <v>0.04291165126079237</v>
@@ -1056,13 +1056,13 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.05101413777943679</v>
+        <v>-0.0911296141915328</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.1974754187746786</v>
+        <v>-0.196919619630897</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.03709062800105139</v>
+        <v>-0.03617012251528469</v>
       </c>
     </row>
     <row r="33">
@@ -1073,13 +1073,13 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>2.933359274098845</v>
+        <v>2.908890925810806</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.3833029959000764</v>
+        <v>0.3847838022096715</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.5539779601764973</v>
+        <v>0.5776779281846466</v>
       </c>
     </row>
     <row r="34">
@@ -1097,7 +1097,7 @@
         <v>3.3123507205249</v>
       </c>
       <c r="D34" s="5" t="n">
-        <v>2.210412699262285</v>
+        <v>2.210412699262283</v>
       </c>
       <c r="E34" s="5" t="n">
         <v>2.393940475024055</v>
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>0.4357949575861323</v>
+        <v>0.1655512803331399</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-0.04642329072535663</v>
+        <v>-0.4027300878996765</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>0.4567448518025831</v>
+        <v>0.2199588583197949</v>
       </c>
     </row>
     <row r="36">
@@ -1128,13 +1128,13 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>9.182081496731284</v>
+        <v>8.130553159595591</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>4.614874014482552</v>
+        <v>4.571729641686582</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>4.598544667530867</v>
+        <v>4.678273197856312</v>
       </c>
     </row>
     <row r="37">
@@ -1148,7 +1148,7 @@
         <v>3.363975743060515</v>
       </c>
       <c r="D37" s="6" t="n">
-        <v>0.32102155253964</v>
+        <v>0.3210215525396398</v>
       </c>
       <c r="E37" s="6" t="n">
         <v>0.4238556685280932</v>
@@ -1162,13 +1162,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.3584466076829815</v>
+        <v>-0.4344787924953221</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.009110470057715514</v>
+        <v>-0.05640794998163062</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>0.05285622845342807</v>
+        <v>0.01845226528343599</v>
       </c>
     </row>
     <row r="39">
@@ -1178,12 +1178,14 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C39" s="6" t="inlineStr"/>
+      <c r="C39" s="6" t="n">
+        <v>17.73619187221971</v>
+      </c>
       <c r="D39" s="6" t="n">
-        <v>0.7954400506395537</v>
+        <v>0.7510079218542878</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.9447055398993341</v>
+        <v>0.9632713538572162</v>
       </c>
     </row>
     <row r="40">
@@ -1201,10 +1203,10 @@
         <v>2.32090169029061</v>
       </c>
       <c r="D40" s="5" t="n">
-        <v>2.622392613408714</v>
+        <v>2.622392613408712</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>2.490773702217303</v>
+        <v>2.490773702217302</v>
       </c>
     </row>
     <row r="41">
@@ -1215,13 +1217,13 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>1.497396064524631</v>
+        <v>1.47605433393202</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>1.423584127413482</v>
+        <v>1.416911753236874</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>1.764216596143376</v>
+        <v>1.75588904785084</v>
       </c>
     </row>
     <row r="42">
@@ -1232,13 +1234,13 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>3.215968491984561</v>
+        <v>3.146375487730947</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>3.775682448896485</v>
+        <v>3.824282034628403</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>3.249065850442537</v>
+        <v>3.268622307469145</v>
       </c>
     </row>
     <row r="43">
@@ -1252,10 +1254,10 @@
         <v>1.214959913884453</v>
       </c>
       <c r="D43" s="6" t="n">
-        <v>0.3986671764371591</v>
+        <v>0.3986671764371589</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>0.5801535571354591</v>
+        <v>0.5801535571354588</v>
       </c>
     </row>
     <row r="44">
@@ -1266,13 +1268,13 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>0.6675308823839711</v>
+        <v>0.5952209687142971</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>0.1983076242786657</v>
+        <v>0.1966828972488507</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.371569994808932</v>
+        <v>0.379270178072126</v>
       </c>
     </row>
     <row r="45">
@@ -1283,13 +1285,13 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>2.087106770139483</v>
+        <v>2.013062984116855</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.6427908871629749</v>
+        <v>0.638423567870838</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.841318458327791</v>
+        <v>0.8198027193717963</v>
       </c>
     </row>
     <row r="46">
